--- a/Test/runas2test-results-1425-2013.11.03/runas2test-1425-2013.11.03.xlsx
+++ b/Test/runas2test-results-1425-2013.11.03/runas2test-1425-2013.11.03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="6" r:id="rId1"/>
@@ -122,17 +122,1746 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>runas2testeagersatotalorder.csv!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>runas2testeagersatotalorder.csv!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.452806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.485592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.487483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.417466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.442749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.450043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.402643</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.395838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.487835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.380454</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.402362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.439086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.343623</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.459195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.398281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.382911</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.375076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.387654</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.428243</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.442021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.427263</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39485</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.414246</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37463</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.367279</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.430313</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.429444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.411661</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.440045</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.387482</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.360024</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.403445</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.534178</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.428571</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.466946</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.380095</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.458356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.353593</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.371132</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41585</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.450722</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.445383</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.439595</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.327712</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.427856</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.401995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.431358</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.420284</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.496984</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.431669</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.462186</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.447122</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.396835</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.430134</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.362997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.506776</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.361998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.3359</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.359333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.402497</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.456922</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.430597</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.509325</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.426341</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.503455</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.515461</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.468599</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.535361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.429808</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.383926</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.553205</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.493267</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.579119</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.428729</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.466025</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.504417</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.543137</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.557273</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.532937</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.457143</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.523051</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.495879</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.514928</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.441092</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.562702</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.504378</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.5735</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.411549</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.500804</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.464869</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.556672</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.419521</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.454741</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.48566</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.440878</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.462939</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.49636</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.508308</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.625438</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.469491</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.460303</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.43525</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.433519</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.502671</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.507917</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.386075</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.41102</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.461534</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.388785</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.340997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.536508</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.512296</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.611724</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.551902</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.531541</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.764675</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.450504</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.417049</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.478382</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.459009</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.457279</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.374565</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.405993</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.419235</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.405587</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.501109</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.595054</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.519031</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.825335</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.541332</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.708242</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.598589</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.610436</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.969704</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.748487</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.717932</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.976564</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.729085</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.548247</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.775036</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.704314</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.555476</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.705983</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.893461</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.61861</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.779647</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.884569</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.681628</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.755054</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.678018</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.702218</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.550708</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.60826</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.719976</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.811622</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.000019</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.933939</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.929655</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.64399</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.759079</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.134319</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.05883</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.511167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.492794</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.218981</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.010356</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.157012</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.425246</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.639264</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.574532</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.121026</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.39714</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.744394</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.17507</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.859782</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.555902</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.493515</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.274812</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.122753</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.341556</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.363925</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.157865</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.750818</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.313785</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.903323</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.02685</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.688049</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.720241</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.209653</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.292951</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.436565</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.93314</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.818635</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.549502</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.926337</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>11.666821</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.067985</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.551956</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.538511</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6.222864</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>14.188907</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.271585</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.546075</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9.420544</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5.940264</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8.066218</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>9.593017</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>7.919808</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3.488307</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6.568685</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.431645</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>18.813959</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>11.440619</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5.481252</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6.153187</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>8.547117</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10.808735</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>6.066856</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9.601603000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6.047822</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8.133655</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5.253287</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5.318289</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.100675</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>17.855965</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>20.597071</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>64.238631</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>37.686823</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>30.666697</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>13.726352</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>28.663018</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>42.186686</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>31.879143</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>15.964447</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>32.837812</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>50.83303</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>29.252673</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>32.693202</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>47.159742</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>17.039554</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>34.481993</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>38.769888</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>17.61891</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>25.177167</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>68.199051</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>24.6733</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>15.01773</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>13.647533</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>38.505057</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>24.569404</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>43.704673</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>32.662974</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>42.973156</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>46.144682</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>27.88761</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>29.612901</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>57.535051</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>96.985964</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>53.181724</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>240.920428</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>135.751485</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>199.491629</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>18.113188</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>87.928562</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>180.667456</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>96.05654800000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>104.062623</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>157.084362</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>176.42362</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>155.148501</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>146.293473</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>106.250888</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>122.682045</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>76.672025</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>47.390996</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>48.883193</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>78.15476700000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>74.98598</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>91.011761</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>30.835032</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44.33866</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>83.109803</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>96.357827</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>129.822726</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>100.621677</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>58.196778</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>213.800559</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>62.647232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -168,17 +1897,1746 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>runas2testlazysabidi.csv!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>runas2testlazysabidi.csv!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.294506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.373028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.376462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.411748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.443377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.293171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.381569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.374151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.404105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.352872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.377156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.444583</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.388123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.312692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.426227</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.390349</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.331204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.444807</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.491999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.377246</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.414645</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.363422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.338842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.427485</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.408498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.455207</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4428</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.411219</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.345232</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.382905</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.450669</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.375039</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.437013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.358323</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.42693</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.398691</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.397725</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.434978</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.411732</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.426564</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.295577</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.429911</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.427896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.390143</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.384377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.402785</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.422517</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.440556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.383808</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.431237</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.419891</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.420935</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.413002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.465431</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.374183</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.307227</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.470325</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.380981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.372252</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.436075</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.356439</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.369797</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.414259</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.440716</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.499882</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.402361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.400128</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.396108</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.3199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.39263</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.447374</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.430901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.319729</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.464176</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.290205</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.317268</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.397191</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.439367</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.340029</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.405716</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.46595</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.437083</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.369798</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.428184</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.439715</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.475154</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.386384</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.450512</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.350687</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.36203</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.391064</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.331169</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.367605</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.343526</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.440469</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.312915</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.327402</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.386818</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.373199</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.359987</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.337329</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.296271</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.375456</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.454674</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.39524</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.335679</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.433861</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.36233</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.368714</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.392353</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.317962</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.4227</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.39842</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.368324</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.461099</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.307057</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.400663</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.389991</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.260305</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.312699</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.360534</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.369537</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.419033</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.342483</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.325769</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.334118</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.333477</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.35912</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.362995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.266427</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.343719</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.350815</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.248293</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.386011</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.347894</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.530062</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.320445</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.29543</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.330477</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.30261</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.319183</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.348997</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.365108</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.361176</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.379413</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.397088</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.325353</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.402989</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.353678</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.408313</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.420937</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.327126</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.226654</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.435402</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.40852</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.405598</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.394625</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.380254</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.334339</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.346406</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.350125</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.320431</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.317617</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.335728</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.322134</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.321441</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.297602</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.325814</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.373972</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.333698</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.412301</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.378426</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.312563</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.248747</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.305165</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.216946</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.327566</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.312195</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.239384</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.351556</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.38699</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.329119</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.286806</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.285749</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.27955</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.273357</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.336308</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.409106</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.292057</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.284424</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.333399</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.375459</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.291106</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.405682</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.302562</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.291999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.320747</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.409979</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.36139</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.440867</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.346323</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.315125</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.356024</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.244332</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.399475</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.33096</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.318124</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.334761</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.267159</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.381285</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.293977</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.292416</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.31061</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.386495</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.262496</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.347026</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.327923</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.35737</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.445746</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.237867</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.349177</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.379946</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.325172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.424339</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.322958</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.444614</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.304877</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.297755</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.242112</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.422698</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.444258</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.338608</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.464066</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.355358</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.461449</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.438478</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.37174</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.37544</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.471537</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.362568</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.391354</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.343431</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.345367</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.397907</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.408913</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.416981</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.259474</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.341583</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.2089</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.309808</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.276023</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.271112</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.33348</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.251693</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.32308</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.228304</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.375047</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.2106</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.635335</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.084886</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.41235</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.440213</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.318632</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.671283</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.737994</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.820792</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.672033</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.997515</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.895542</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.596811</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.84652</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.803066</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.383236</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.292639</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.365051</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.428395</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.188783</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.398379</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.433662</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.162615</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.877974</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.592716</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.609237</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.597017</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.431139</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.457581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -214,17 +3672,1746 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>runas2testnonsaeager.csv!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>runas2testnonsaeager.csv!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.363271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.403407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.422757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.456895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.391895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.335603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.401134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.399713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.394147</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.402447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.352297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.428398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.417771</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.359072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.442039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.431831</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.404508</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.348623</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.440244</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.432472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.442596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.431331</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.442652</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.37055</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.401077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.430499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.387901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.375546</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39305</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.456597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.323168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.388847</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.406655</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.406712</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.439524</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.397627</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.414764</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.486203</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.409523</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.396705</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.390724</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.415626</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.402552</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.454486</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40232</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.377771</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.386192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.318206</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.346431</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.471901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.339229</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.449456</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.419777</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.402154</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39308</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.35551</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.416027</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.419968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.404726</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.377438</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.376582</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.384642</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.378137</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.520943</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.400318</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.41265</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.469068</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.470323</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.428329</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.43176</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.471805</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.354201</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.49823</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.377486</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.403534</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.398141</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.351615</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.321627</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.309321</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.408323</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.439715</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.479793</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.317508</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.406387</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.376485</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.272274</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.4429</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.317412</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.351334</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.432187</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.373054</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.298512</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.386758</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.390991</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.353918</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.422275</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.291619</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.446523</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.351203</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.370176</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.372349</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.452975</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.301463</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.373669</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.341687</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.375004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.373751</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.370034</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.297067</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.402114</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.460071</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.399701</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.418405</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.392522</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.366144</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.459915</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.406566</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.301288</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.366074</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.354194</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.341447</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.343863</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.386548</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.349651</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.3569</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.291502</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.35129</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.358698</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.409357</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.26765</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.373635</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.328916</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.241274</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.403415</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.322005</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.400116</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.443489</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.396076</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.342859</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.352342</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.416059</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.346896</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.294385</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.328115</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.308599</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.413084</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.344997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.363097</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.386216</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.366746</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.360094</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.299807</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.370625</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.385391</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.425821</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.359368</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.500783</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.405812</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.430262</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.519557</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.455102</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.515546</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.441135</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.612414</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.414616</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.389858</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.414883</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.522638</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.509442</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.500992</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.38426</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.424672</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.509503</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.356276</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.393138</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.388432</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.474521</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.395751</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.320311</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.272693</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.507351</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.367314</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.277563</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.332071</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.407493</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.399475</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.307205</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.310858</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.442878</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.334036</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.325602</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.725219</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.801347</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.905058</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.693526</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.745214</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.680059</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.700834</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.769379</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.621078</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.725494</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.695459</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.563412</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.834162</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.686506</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.541696</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.791162</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.831403</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.521296</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.648977</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.668222</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.56623</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.659501</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.672375</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.823455</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.602988</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.398653</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.699039</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.752318</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.722177</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.595638</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.829333</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.458507</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.887055</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.76338</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.292052</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.371556</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.490987</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.35844</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.274872</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.474266</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.392722</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.492261</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.250151</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.214203</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.364379</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.092419</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.12226</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.40117</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.635726</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.30242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.130844</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.48362</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.310233</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.307655</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.771459</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.968161</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.614112</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.848217</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.525415</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.228626</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.794857</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.623241</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.383447</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.248357</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.058303</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.144016</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.535749</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3.03547</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>9.847913</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>6.352936</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.758387</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.758359</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4.678574</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4.697348</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5.118137</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.550514</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5.454529</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.665901</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.92925</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.605826</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.559462</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3.64798</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.768701</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.376556</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.882767</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.017138</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.179843</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.292094</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.276731</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.168838</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.531767</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>4.169964</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4.697566</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.645247</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2.257909</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.926456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -239,14 +5426,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174591704"/>
-        <c:axId val="517332968"/>
+        <c:axId val="254910024"/>
+        <c:axId val="522230232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174591704"/>
+        <c:axId val="254910024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="18.0"/>
+          <c:max val="13.0"/>
           <c:min val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -281,12 +5468,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517332968"/>
+        <c:crossAx val="522230232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517332968"/>
+        <c:axId val="522230232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -323,7 +5510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174591704"/>
+        <c:crossAx val="254910024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5730,11 +10917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175088664"/>
-        <c:axId val="38097864"/>
+        <c:axId val="400446360"/>
+        <c:axId val="400483528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175088664"/>
+        <c:axId val="400446360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.0"/>
@@ -5772,12 +10959,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="38097864"/>
+        <c:crossAx val="400483528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38097864"/>
+        <c:axId val="400483528"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5815,7 +11002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175088664"/>
+        <c:crossAx val="400446360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6252,8 +11439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6272,7 +11459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>

--- a/Test/runas2test-results-1425-2013.11.03/runas2test-1425-2013.11.03.xlsx
+++ b/Test/runas2test-results-1425-2013.11.03/runas2test-1425-2013.11.03.xlsx
@@ -5438,8 +5438,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5480,8 +5478,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5529,7 +5525,16 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.176688992714085"/>
+          <c:y val="0.360875444935821"/>
+          <c:w val="0.25899565458882"/>
+          <c:h val="0.16523541149822"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11021,8 +11026,3742 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.180838370307446"/>
+          <c:y val="0.376286403839931"/>
+          <c:w val="0.25899565458882"/>
+          <c:h val="0.16523541149822"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.165384967788117"/>
+          <c:y val="0.339955849889625"/>
+          <c:w val="0.497030780243379"/>
+          <c:h val="0.486328414246232"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BDCPA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>LazySABidi</c:name>
+            <c:spPr>
+              <a:ln w="57150">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>runas2testlazysabidi.csv!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>runas2testlazysabidi.csv!$C:$C</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.294506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.373028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.376462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.411748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.443377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.293171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.381569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.374151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.404105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.352872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.377156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.444583</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.388123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.312692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.426227</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.390349</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.331204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.444807</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.491999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.377246</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.414645</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.363422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.338842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.427485</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.408498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.455207</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4428</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.411219</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.345232</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.382905</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.450669</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.375039</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.437013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.358323</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.42693</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.398691</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.397725</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.434978</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.411732</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.426564</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.295577</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.429911</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.427896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.390143</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.384377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.402785</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.422517</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.440556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.383808</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.431237</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.419891</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.420935</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.413002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.465431</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.374183</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.307227</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.470325</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.380981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.372252</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.436075</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.356439</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.369797</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.414259</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.440716</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.499882</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.402361</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.400128</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.396108</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.3199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.39263</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.447374</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.430901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.319729</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.464176</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.290205</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.317268</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.397191</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.439367</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.340029</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.405716</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.46595</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.437083</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.369798</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.428184</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.439715</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.475154</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.386384</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.450512</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.350687</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.36203</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.391064</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.331169</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.367605</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.343526</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.440469</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.312915</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.327402</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.386818</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.373199</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.359987</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.337329</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.296271</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.375456</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.454674</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.39524</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.335679</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.433861</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.36233</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.368714</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.392353</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.317962</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.4227</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.39842</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.368324</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.461099</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.307057</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.400663</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.389991</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.260305</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.312699</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.360534</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.369537</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.419033</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.342483</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.325769</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.334118</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.333477</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.35912</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.362995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.266427</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.343719</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.350815</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.248293</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.386011</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.347894</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.530062</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.320445</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.29543</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.330477</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.30261</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.319183</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.348997</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.365108</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.361176</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.379413</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.397088</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.325353</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.402989</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.353678</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.408313</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.420937</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.327126</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.226654</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.435402</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.40852</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.405598</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.394625</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.380254</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.334339</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.346406</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.350125</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.320431</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.317617</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.335728</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.322134</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.321441</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.297602</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.325814</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.373972</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.333698</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.412301</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.378426</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.312563</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.248747</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.305165</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.216946</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.327566</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.312195</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.239384</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.351556</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.38699</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.329119</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.286806</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.285749</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.27955</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.273357</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.336308</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.409106</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.292057</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.284424</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.333399</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.375459</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.291106</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.405682</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.302562</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.291999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.320747</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.409979</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.36139</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.440867</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.346323</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.315125</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.356024</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.244332</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.399475</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.33096</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.318124</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.334761</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.267159</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.381285</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.293977</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.292416</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.31061</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.386495</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.262496</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.347026</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.327923</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.35737</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.445746</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.237867</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.349177</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.379946</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.325172</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.424339</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.322958</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.444614</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.304877</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.297755</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.242112</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.422698</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.444258</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.338608</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.464066</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.355358</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.461449</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.438478</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.37174</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.37544</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.471537</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.362568</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.391354</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.343431</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.345367</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.397907</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.408913</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.416981</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.259474</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.341583</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.2089</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.309808</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.276023</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.271112</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.33348</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.251693</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.32308</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.228304</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.375047</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.2106</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.635335</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.084886</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.41235</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.440213</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.318632</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.671283</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.737994</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.820792</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.672033</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.997515</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.895542</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.596811</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.84652</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.803066</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.383236</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.292639</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.365051</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.428395</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.188783</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.398379</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.433662</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.162615</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.877974</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.592716</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.609237</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.597017</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.431139</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.457581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Naive</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>Eager/Naive</c:name>
+            <c:spPr>
+              <a:ln w="60325">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>runas2testnonsaeager.csv!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>runas2testnonsaeager.csv!$C:$C</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.363271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.403407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.422757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.456895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.391895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.335603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.401134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.399713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.394147</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.402447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.352297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.428398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.417771</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.359072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.442039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.431831</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.404508</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.348623</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.440244</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.432472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.442596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.431331</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.442652</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.37055</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.401077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.430499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.387901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.375546</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39305</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.456597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.323168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.388847</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.406655</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.406712</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.439524</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.397627</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.414764</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.486203</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.409523</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.396705</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.390724</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.415626</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.402552</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.454486</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40232</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.377771</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.386192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.318206</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.346431</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.471901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.339229</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.449456</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.419777</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.402154</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39308</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.35551</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.416027</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.419968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.404726</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.377438</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.376582</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.384642</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.378137</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.520943</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.400318</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.41265</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.469068</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.470323</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.428329</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.43176</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.471805</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.354201</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.49823</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.377486</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.403534</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.398141</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.351615</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.321627</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.309321</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.408323</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.439715</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.479793</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.317508</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.406387</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.376485</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.272274</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.4429</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.317412</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.351334</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.432187</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.373054</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.298512</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.386758</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.390991</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.353918</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.422275</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.291619</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.446523</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.351203</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.370176</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.372349</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.452975</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.301463</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.373669</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.341687</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.375004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.373751</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.370034</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.297067</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.402114</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.460071</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.399701</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.418405</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.392522</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.366144</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.459915</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.406566</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.301288</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.366074</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.354194</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.341447</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.343863</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.386548</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.349651</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.3569</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.291502</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.35129</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.358698</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.409357</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.26765</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.373635</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.328916</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.241274</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.403415</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.322005</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.400116</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.443489</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.396076</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.342859</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.352342</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.416059</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.346896</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.294385</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.328115</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.308599</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.413084</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.344997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.363097</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.386216</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.366746</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.360094</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.299807</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.370625</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.385391</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.425821</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.359368</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.500783</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.405812</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.430262</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.519557</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.455102</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.515546</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.441135</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.612414</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.414616</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.389858</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.414883</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.522638</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.509442</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.500992</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.38426</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.424672</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.509503</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.356276</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.393138</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.388432</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.474521</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.395751</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.320311</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.272693</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.507351</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.367314</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.277563</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.332071</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.407493</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.399475</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.307205</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.310858</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.442878</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.334036</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.325602</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.725219</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.801347</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.905058</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.693526</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.745214</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.680059</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.700834</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.769379</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.621078</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.725494</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.695459</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.563412</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.834162</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.686506</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.541696</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.791162</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.831403</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.521296</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.648977</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.668222</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.56623</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.659501</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.672375</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.823455</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.602988</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.398653</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.699039</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.752318</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.722177</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.595638</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.829333</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.458507</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.887055</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.76338</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.292052</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.371556</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.490987</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.35844</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.274872</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.474266</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.392722</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.492261</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.250151</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.214203</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.364379</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.092419</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.12226</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.40117</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.635726</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.30242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.130844</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.48362</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.310233</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.307655</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.771459</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.968161</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.614112</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.848217</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.525415</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.228626</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.794857</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.623241</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.383447</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.248357</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.058303</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.144016</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.535749</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3.03547</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>9.847913</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>6.352936</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.758387</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.758359</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4.678574</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4.697348</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5.118137</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.550514</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5.454529</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.665901</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.92925</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.605826</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.559462</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3.64798</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.768701</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.376556</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.882767</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.017138</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.179843</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.292094</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.276731</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.168838</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.531767</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>4.169964</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4.697566</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.645247</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2.257909</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.926456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="900742568"/>
+        <c:axId val="900748568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="900742568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of sheets (10 changes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="900748568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="900748568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="900742568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.176688992714085"/>
+          <c:y val="0.360875444935821"/>
+          <c:w val="0.25899565458882"/>
+          <c:h val="0.16523541149822"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -11051,15 +14790,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11107,6 +14846,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11439,13 +15210,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
